--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_gene_ranking.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_gene_ranking.xlsx
@@ -1221,7 +1221,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">

--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_gene_ranking.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_gene_ranking.xlsx
@@ -1221,7 +1221,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">

--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_gene_ranking.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_gene_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,67 +506,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Abca1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Abca1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Csf1r</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Fth1</t>
         </is>
       </c>
     </row>
@@ -581,62 +581,62 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Dennd4a</t>
         </is>
       </c>
     </row>
@@ -646,67 +646,67 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Abca1</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Tspan13</t>
         </is>
       </c>
     </row>
@@ -716,67 +716,67 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Cd44</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Ptgs2</t>
         </is>
       </c>
     </row>
@@ -786,67 +786,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Cd44</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Sema7a</t>
         </is>
       </c>
     </row>
@@ -861,57 +861,57 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Ccser2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -926,67 +926,67 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
     </row>
@@ -996,67 +996,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Plxdc2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Plxdc2</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Myo1e</t>
         </is>
       </c>
     </row>
@@ -1066,67 +1066,67 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Csf1r</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Clec4n</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Cd274</t>
         </is>
       </c>
     </row>
@@ -1141,62 +1141,62 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Tes</t>
         </is>
       </c>
     </row>
@@ -1206,67 +1206,67 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Clec4n</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Plet1</t>
         </is>
       </c>
     </row>
@@ -1276,67 +1276,67 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Plxdc2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Abca1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Il1b</t>
         </is>
       </c>
     </row>
@@ -1346,67 +1346,67 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Cd44</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Cd44</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Nabp1</t>
         </is>
       </c>
     </row>
@@ -1416,67 +1416,67 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Hspa5</t>
         </is>
       </c>
     </row>
@@ -1486,67 +1486,67 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Ccser2</t>
         </is>
       </c>
     </row>
@@ -1556,67 +1556,67 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tbc1d4</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tox</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mmp12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Il2ra</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tnfrsf9</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>Nr4a3</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Csf2rb</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Alpk2</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Mki67</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Nabp1</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Arap2</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Nr4a3</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Csf1r</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Adam23</t>
         </is>
       </c>
     </row>
@@ -1626,67 +1626,67 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Pola1</t>
         </is>
       </c>
     </row>
@@ -1696,67 +1696,67 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Gm46212</t>
         </is>
       </c>
     </row>
@@ -1766,67 +1766,67 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Clec4n</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Abcb1a</t>
         </is>
       </c>
     </row>
@@ -1836,67 +1836,67 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Ncapd3</t>
         </is>
       </c>
     </row>
@@ -1906,67 +1906,67 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Rel</t>
         </is>
       </c>
     </row>
@@ -1976,67 +1976,67 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Ccser2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Mmp12</t>
         </is>
       </c>
     </row>
@@ -2046,67 +2046,67 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Plet1os</t>
         </is>
       </c>
     </row>
@@ -2116,67 +2116,67 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>Rgs1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Btla</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Rabgap1l</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>Cst3</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Ly75</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Lrrk2</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Ccdc167</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Plek</t>
         </is>
       </c>
     </row>
@@ -2186,67 +2186,67 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Vps37b</t>
         </is>
       </c>
     </row>
@@ -2256,67 +2256,67 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Malat1</t>
         </is>
       </c>
     </row>
@@ -2326,67 +2326,67 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Cd74</t>
         </is>
       </c>
     </row>
@@ -2396,67 +2396,67 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Nr4a3</t>
         </is>
       </c>
     </row>
@@ -2466,67 +2466,67 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Csf1r</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
     </row>
@@ -2536,67 +2536,67 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Fosb</t>
         </is>
       </c>
     </row>
@@ -2606,67 +2606,67 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Rgs1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Tspan13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mrc1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Rel</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Top2a</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Atxn1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>Ly75</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Dpp4</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Tsix</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Med7</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Gm17092</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Rgs1</t>
-        </is>
-      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Lima1</t>
         </is>
       </c>
     </row>
@@ -2676,67 +2676,67 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Samhd1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Plxdc2</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Tmem189</t>
         </is>
       </c>
     </row>
@@ -2746,67 +2746,67 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Pla2g7</t>
         </is>
       </c>
     </row>
@@ -2816,42 +2816,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Clec4n</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2861,22 +2861,22 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Cst3</t>
         </is>
       </c>
     </row>
@@ -2886,67 +2886,67 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
     </row>
@@ -2956,67 +2956,67 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Ccser2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Ccser2</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Mdh2</t>
         </is>
       </c>
     </row>
@@ -3026,67 +3026,67 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Havcr2</t>
         </is>
       </c>
     </row>
@@ -3096,67 +3096,67 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Samhd1</t>
         </is>
       </c>
     </row>
@@ -3166,67 +3166,67 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Odc1</t>
         </is>
       </c>
     </row>
@@ -3236,67 +3236,67 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Rora</t>
         </is>
       </c>
     </row>
@@ -3306,12 +3306,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3321,52 +3321,52 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Hmgb2</t>
         </is>
       </c>
     </row>
@@ -3376,67 +3376,67 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Clec4n</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Cd44</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Ccr7</t>
         </is>
       </c>
     </row>
@@ -3446,67 +3446,67 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Apol7c</t>
         </is>
       </c>
     </row>
@@ -3516,67 +3516,67 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Cd44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Adgrg6</t>
         </is>
       </c>
     </row>
@@ -3586,67 +3586,67 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
+          <t>Hspa5</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Emb</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Ctla4</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>Cd83</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Lrrc18</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Cd74</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Vps37b</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Gclc</t>
         </is>
       </c>
     </row>
@@ -3656,67 +3656,67 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Clec4n</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Itga4</t>
         </is>
       </c>
     </row>
@@ -3731,62 +3731,62 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Atad2</t>
         </is>
       </c>
     </row>
@@ -3796,67 +3796,67 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Tpd52</t>
         </is>
       </c>
     </row>
@@ -3866,67 +3866,67 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Stt3b</t>
         </is>
       </c>
     </row>
@@ -3936,67 +3936,67 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Tox</t>
         </is>
       </c>
     </row>
@@ -4006,67 +4006,67 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Ctla4</t>
         </is>
       </c>
     </row>
@@ -4076,67 +4076,67 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Plxdc2</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
     </row>
@@ -4146,67 +4146,67 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
+          <t>Vps37b</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
           <t>Nabp1</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Gm20496</t>
-        </is>
-      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Emb</t>
         </is>
       </c>
     </row>
@@ -4216,67 +4216,67 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Btla</t>
         </is>
       </c>
     </row>
@@ -4286,67 +4286,67 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>Rab7b</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Tnip3</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Smc4</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Smc4</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Plxdc2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Itk</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Mdh2</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Ptpn22</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
           <t>Emb</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Vav3</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Havcr2</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>4932438H23Rik</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Tmem132a</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Itk</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Inpp4b</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Fth1</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Actb</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Rgs1</t>
         </is>
       </c>
     </row>
@@ -4356,67 +4356,67 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Diaph3</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Icam1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Nfkbiz</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Rgs1</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Lrrk2</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Clec1a</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Ly75</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Gclc</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Hells</t>
         </is>
       </c>
     </row>
@@ -4426,67 +4426,67 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Cd44</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
     </row>
@@ -4496,67 +4496,67 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Malt1</t>
         </is>
       </c>
     </row>
@@ -4566,67 +4566,67 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Cd44</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Cxcl2</t>
         </is>
       </c>
     </row>
@@ -4636,67 +4636,67 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>Rel</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>Cd83</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Ikzf3</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Ccser2</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Map3k14</t>
         </is>
       </c>
     </row>
@@ -4706,67 +4706,67 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Mrc1</t>
         </is>
       </c>
     </row>
@@ -4776,67 +4776,67 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
     </row>
@@ -4846,67 +4846,67 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
     </row>
@@ -4916,67 +4916,67 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Pik3r1</t>
         </is>
       </c>
     </row>
@@ -4986,67 +4986,67 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Top2a</t>
         </is>
       </c>
     </row>
@@ -5056,67 +5056,67 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>Inpp4b</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Cadm1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Cep85l</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Lima1</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Rgs1</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Camk4</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Abcb1a</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
           <t>Ets1</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Cdk14</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Eif3a</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Tcof1</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Tbc1d8</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Gm14023</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Lrrk2</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Ifngr1</t>
-        </is>
-      </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Gm36043</t>
         </is>
       </c>
     </row>
@@ -5126,67 +5126,67 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Plxdc2</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Atxn1</t>
         </is>
       </c>
     </row>
@@ -5196,67 +5196,67 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Gm15511</t>
         </is>
       </c>
     </row>
@@ -5266,67 +5266,67 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Csf1r</t>
         </is>
       </c>
     </row>
@@ -5336,67 +5336,67 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Clec4n</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Wdr1</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Ptpn22</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5416,57 +5416,57 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Apoe</t>
         </is>
       </c>
     </row>
@@ -5476,67 +5476,67 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Csf1r</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Cadm1</t>
         </is>
       </c>
     </row>
@@ -5546,67 +5546,67 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Csf1r</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
+          <t>Plxdc2</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
           <t>Ets1</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Arap2</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Itk</t>
-        </is>
-      </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Abca1</t>
         </is>
       </c>
     </row>
@@ -5616,67 +5616,67 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Gm28592</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Epas1</t>
         </is>
       </c>
     </row>
@@ -5686,67 +5686,67 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Cd83</t>
         </is>
       </c>
     </row>
@@ -5756,47 +5756,47 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5806,17 +5806,17 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Smc4</t>
         </is>
       </c>
     </row>
@@ -5826,67 +5826,67 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Fth1</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Ifi207</t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Tnfsf8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5906,57 +5906,57 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Nabp1</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Ikzf2</t>
         </is>
       </c>
     </row>
@@ -5966,67 +5966,67 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Cblb</t>
+          <t>Itk</t>
         </is>
       </c>
     </row>
@@ -6036,67 +6036,67 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Ifi205</t>
         </is>
       </c>
     </row>
@@ -6106,67 +6106,67 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Camk4</t>
         </is>
       </c>
     </row>
@@ -6176,67 +6176,67 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Ccser2</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Tnip3</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lrrc18</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Plxdc2</t>
         </is>
       </c>
     </row>
@@ -6246,67 +6246,67 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Mrc1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Mki67</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Rasgef1b</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Wdfy4</t>
         </is>
       </c>
     </row>
@@ -6316,67 +6316,67 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Epas1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>1700071M16Rik</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Abca1</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Inpp4b</t>
         </is>
       </c>
     </row>
@@ -6386,67 +6386,67 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Pla2g7</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
+          <t>Mki67</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
           <t>Samsn1</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Samsn1</t>
-        </is>
-      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Etv3</t>
         </is>
       </c>
     </row>
@@ -6456,37 +6456,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Etv3</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6496,27 +6496,27 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Ikzf3</t>
         </is>
       </c>
     </row>
@@ -6526,67 +6526,67 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Nfkbiz</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Mast4</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Ets1</t>
         </is>
       </c>
     </row>
@@ -6596,67 +6596,907 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Icam1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>Smc4</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Pola1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Fth1</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Diaph3</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Itk</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Il2ra</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Plet1os</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Samhd1</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Gimap4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Itk</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ifi205</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Tnip3</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Ccser2</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Jak2</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Ifi207</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Gm46212</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Atad2</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Plek</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Ccser2</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Apoe</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Spon1</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Ly75</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Csf1r</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ccr7</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Plxdc2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Tbc1d4</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Gm46212</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Rab7b</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Cst3</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Gimap4</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Gm36043</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Gm36043</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Ccser2</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Ikzf3</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Rab7b</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Camk4</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Rgs1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Ifi205</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Rgs1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kpna4</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Pola1</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Cep85l</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Ifi207</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Fosb</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Tnfaip3</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Mmp12</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Odc1</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Clec4n</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Apoe</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Plxdc2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1700071M16Rik</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Gm46212</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Irf4</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Hells</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Mki67</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
           <t>Tmem189</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Actb</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Gm10684</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>H2-Ab1</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Pola1</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Il2ra</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Ly75</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Hmgb2</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Mki67</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Plxdc2</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Spon1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Adgrg6</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Il2ra</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Vps37b</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Stt3b</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Tpd52</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Abcb1a</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Diaph3</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Ptgs2</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Plxdc2</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Cep85l</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1700071M16Rik</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Samhd1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Zc3h12c</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Irf4</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Tes</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Ets1</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Cd83</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Cxcl2</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Top2a</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Ccser2</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Tnfaip3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Gimap4</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Apoe</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Cblb</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Fosb</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Cst3</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Apoe</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Fosb</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Clec4n</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Myo1e</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Pla2g7</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Adam23</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Icam1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Tnfrsf9</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Top2a</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Jak2</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Ccser2</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Myo1e</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Abca1</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Abca1</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Adam23</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Samhd1</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Adgrg6</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Etv3</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Thbs1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Tspan13</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Thbs1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Csf1r</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Hspa5</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Odc1</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Zc3h12c</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Stt3b</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Adgrg6</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Csf1r</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Gimap4</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Rabgap1l</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Vps37b</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Plet1os</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Jak2</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Cblb</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Kpna4</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Vps37b</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Map3k14</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Mki67</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Zc3h12c</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Rab7b</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Mmp12</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Cd44</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Cd83</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Odc1</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Abca1</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Tspan13</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Plet1</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Rel</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Irf4</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Tpd52</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Havcr2</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Tmem116</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Stt3b</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Mki67</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Myo1e</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Zc3h12c</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Apol7c</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Hmgb2</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Clec4n</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Etv3</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Spon1</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>Btla</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Gdi2</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Arap2</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Alpk2</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>Gm12999</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Actr3</t>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Mast4</t>
         </is>
       </c>
     </row>
